--- a/outputs-r202/p__Fibrobacterota.xlsx
+++ b/outputs-r202/p__Fibrobacterota.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RUG690.fasta</t>
+          <t>RUG480.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -590,27 +590,85 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
+          <t>RUG520.fasta</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>c__Chitinivibrionia</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>c__Chitinivibrionia</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG690.fasta</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>c__Fibrobacteria</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>c__Fibrobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
           <t>RUG831.fasta</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>c__Fibrobacteria</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>c__Fibrobacteria</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>c__Fibrobacteria</t>
         </is>

--- a/outputs-r202/p__Fibrobacterota.xlsx
+++ b/outputs-r202/p__Fibrobacterota.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,23 +465,18 @@
           <t>prediction</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>rejection-f</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RUG181.fasta</t>
+          <t>RUG081.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -491,39 +486,29 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>c__Fibrobacteria</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>c__Fibrobacteria</t>
+          <t>c__Chitinivibrionia</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RUG229.fasta</t>
+          <t>RUG129.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.2206717771188837</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.7793282228810894</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.684492211890853e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.7793282228810894</v>
       </c>
       <c r="F3" t="inlineStr">
-        <is>
-          <t>c__Fibrobacteria</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
         <is>
           <t>c__Fibrobacteria</t>
         </is>
@@ -532,27 +517,22 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>RUG438.fasta</t>
+          <t>RUG130.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.2206717771188837</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.7793282228810894</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2.684492211890853e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.7793282228810894</v>
       </c>
       <c r="F4" t="inlineStr">
-        <is>
-          <t>c__Fibrobacteria</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
         <is>
           <t>c__Fibrobacteria</t>
         </is>
@@ -561,14 +541,14 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RUG480.fasta</t>
+          <t>RUG163.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -578,26 +558,21 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>c__Fibrobacteria</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>c__Fibrobacteria</t>
+          <t>c__Chitinivibrionia</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RUG520.fasta</t>
+          <t>RUG181.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -607,19 +582,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>c__Chitinivibrionia</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>c__Chitinivibrionia</t>
+          <t>c__Fibrobacteria</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>RUG690.fasta</t>
+          <t>RUG229.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -635,11 +605,6 @@
         <v>1</v>
       </c>
       <c r="F7" t="inlineStr">
-        <is>
-          <t>c__Fibrobacteria</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
         <is>
           <t>c__Fibrobacteria</t>
         </is>
@@ -648,27 +613,382 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
+          <t>RUG243.fasta</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>c__Chitinivibrionia</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG438.fasta</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>c__Fibrobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG441.fasta</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>c__Chitinivibrionia</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG480.fasta</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>c__Fibrobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG486.fasta</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.08889075657277164</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8222184868544566</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.08889075657277164</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8222184868544566</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>c__Fibrobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG520.fasta</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>c__Chitinivibrionia</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>RUG540.fasta</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.08889075657277164</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8222184868544566</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.08889075657277164</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8222184868544566</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>c__Fibrobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG560.fasta</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.2206717771188837</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7793282228810894</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2.684492211890853e-14</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7793282228810894</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>c__Fibrobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG690.fasta</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>c__Fibrobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG702.fasta</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.2206717771188837</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7793282228810894</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.684492211890853e-14</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7793282228810894</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>c__Fibrobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG714.fasta</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.2206717771188837</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7793282228810894</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.684492211890853e-14</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.7793282228810894</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>c__Fibrobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG723.fasta</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>c__Fibrobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG741.fasta</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.4538128862049729</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.2730935568975136</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.2730935568975135</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.4538128862049729</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>c__Chitinivibrionia</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG752.fasta</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.2206717771188837</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7793282228810894</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.684492211890853e-14</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.7793282228810894</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>c__Fibrobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>RUG775.fasta</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.4538128862049729</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.2730935568975136</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.2730935568975135</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.4538128862049729</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>c__Chitinivibrionia</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
           <t>RUG831.fasta</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>c__Fibrobacteria</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="inlineStr">
         <is>
           <t>c__Fibrobacteria</t>
         </is>

--- a/outputs-r202/p__Fibrobacterota.xlsx
+++ b/outputs-r202/p__Fibrobacterota.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,11 @@
           <t>c__Chitinivibrionia</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>c__Chitinivibrionia</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -513,6 +523,11 @@
           <t>c__Fibrobacteria</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>c__Fibrobacteria(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -537,6 +552,11 @@
           <t>c__Fibrobacteria</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>c__Fibrobacteria(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -561,6 +581,11 @@
           <t>c__Chitinivibrionia</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>c__Chitinivibrionia</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -585,6 +610,11 @@
           <t>c__Fibrobacteria</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>c__Fibrobacteria</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -609,6 +639,11 @@
           <t>c__Fibrobacteria</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>c__Fibrobacteria</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -633,6 +668,11 @@
           <t>c__Chitinivibrionia</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>c__Chitinivibrionia</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -657,6 +697,11 @@
           <t>c__Fibrobacteria</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>c__Fibrobacteria</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -681,6 +726,11 @@
           <t>c__Chitinivibrionia</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>c__Chitinivibrionia</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -705,6 +755,11 @@
           <t>c__Fibrobacteria</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>c__Fibrobacteria</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -729,6 +784,11 @@
           <t>c__Fibrobacteria</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>c__Fibrobacteria</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -753,6 +813,11 @@
           <t>c__Chitinivibrionia</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>c__Chitinivibrionia</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -777,6 +842,11 @@
           <t>c__Fibrobacteria</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>c__Fibrobacteria</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -801,6 +871,11 @@
           <t>c__Fibrobacteria</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>c__Fibrobacteria(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -825,6 +900,11 @@
           <t>c__Fibrobacteria</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>c__Fibrobacteria</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -849,6 +929,11 @@
           <t>c__Fibrobacteria</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>c__Fibrobacteria(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -873,6 +958,11 @@
           <t>c__Fibrobacteria</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>c__Fibrobacteria(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -897,6 +987,11 @@
           <t>c__Fibrobacteria</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>c__Fibrobacteria</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -921,6 +1016,11 @@
           <t>c__Chitinivibrionia</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>c__Chitinivibrionia(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -945,6 +1045,11 @@
           <t>c__Fibrobacteria</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>c__Fibrobacteria(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -969,6 +1074,11 @@
           <t>c__Chitinivibrionia</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>c__Chitinivibrionia(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -989,6 +1099,11 @@
         <v>1</v>
       </c>
       <c r="F23" t="inlineStr">
+        <is>
+          <t>c__Fibrobacteria</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>c__Fibrobacteria</t>
         </is>

--- a/outputs-r202/p__Fibrobacterota.xlsx
+++ b/outputs-r202/p__Fibrobacterota.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,14 +474,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RUG081.fasta</t>
+          <t>RUG181.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -491,32 +491,32 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>c__Chitinivibrionia</t>
+          <t>c__Fibrobacteria</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>c__Chitinivibrionia</t>
+          <t>c__Fibrobacteria</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RUG129.fasta</t>
+          <t>RUG229.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2206717771188837</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7793282228810894</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>2.684492211890853e-14</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7793282228810894</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -525,27 +525,27 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>c__Fibrobacteria(reject)</t>
+          <t>c__Fibrobacteria</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>RUG130.fasta</t>
+          <t>RUG438.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2206717771188837</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7793282228810894</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>2.684492211890853e-14</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7793282228810894</v>
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -554,21 +554,21 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>c__Fibrobacteria(reject)</t>
+          <t>c__Fibrobacteria</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RUG163.fasta</t>
+          <t>RUG480.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -578,26 +578,26 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>c__Chitinivibrionia</t>
+          <t>c__Fibrobacteria</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>c__Chitinivibrionia</t>
+          <t>c__Fibrobacteria</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RUG181.fasta</t>
+          <t>RUG520.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -607,19 +607,19 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>c__Fibrobacteria</t>
+          <t>c__Chitinivibrionia</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>c__Fibrobacteria</t>
+          <t>c__Chitinivibrionia</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>RUG229.fasta</t>
+          <t>RUG690.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -648,14 +648,14 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>RUG243.fasta</t>
+          <t>RUG831.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -665,445 +665,10 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>c__Chitinivibrionia</t>
+          <t>c__Fibrobacteria</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
-        <is>
-          <t>c__Chitinivibrionia</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>RUG438.fasta</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>c__Fibrobacteria</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>c__Fibrobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>RUG441.fasta</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>c__Chitinivibrionia</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>c__Chitinivibrionia</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>RUG480.fasta</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>c__Fibrobacteria</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>c__Fibrobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>RUG486.fasta</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.08889075657277164</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8222184868544566</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.08889075657277164</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.8222184868544566</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>c__Fibrobacteria</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>c__Fibrobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>RUG520.fasta</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>c__Chitinivibrionia</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>c__Chitinivibrionia</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>RUG540.fasta</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.08889075657277164</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.8222184868544566</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.08889075657277164</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.8222184868544566</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>c__Fibrobacteria</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>c__Fibrobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>RUG560.fasta</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.2206717771188837</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.7793282228810894</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2.684492211890853e-14</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.7793282228810894</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>c__Fibrobacteria</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>c__Fibrobacteria(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>RUG690.fasta</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>c__Fibrobacteria</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>c__Fibrobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>RUG702.fasta</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.2206717771188837</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.7793282228810894</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2.684492211890853e-14</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.7793282228810894</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>c__Fibrobacteria</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>c__Fibrobacteria(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>RUG714.fasta</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.2206717771188837</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.7793282228810894</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2.684492211890853e-14</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.7793282228810894</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>c__Fibrobacteria</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>c__Fibrobacteria(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>RUG723.fasta</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>c__Fibrobacteria</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>c__Fibrobacteria</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>RUG741.fasta</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.4538128862049729</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.2730935568975136</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.2730935568975135</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.4538128862049729</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>c__Chitinivibrionia</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>c__Chitinivibrionia(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>RUG752.fasta</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.2206717771188837</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.7793282228810894</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2.684492211890853e-14</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.7793282228810894</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>c__Fibrobacteria</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>c__Fibrobacteria(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>RUG775.fasta</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.4538128862049729</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.2730935568975136</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.2730935568975135</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.4538128862049729</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>c__Chitinivibrionia</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>c__Chitinivibrionia(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>RUG831.fasta</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>c__Fibrobacteria</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
         <is>
           <t>c__Fibrobacteria</t>
         </is>
